--- a/testCase/163WebMail/module.xlsx
+++ b/testCase/163WebMail/module.xlsx
@@ -138,14 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maomingtest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>as123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,16 +152,24 @@
     <t>Step07</t>
   </si>
   <si>
-    <t>id=x-URS-iframe</t>
+    <t>ClickElement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${username}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${password}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=x-URS-ifram</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClickElement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待3秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -638,7 +638,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -714,16 +714,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="8">
         <v>3</v>
@@ -749,7 +749,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="9"/>
@@ -778,7 +778,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I5" s="10"/>
     </row>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I6" s="10"/>
     </row>
@@ -817,13 +817,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>26</v>
@@ -842,7 +842,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
